--- a/Requirements Document.xlsx
+++ b/Requirements Document.xlsx
@@ -1,37 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailmissouri-my.sharepoint.com/personal/cslgbt_umsystem_edu/Documents/4320/group project/sprint1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{EC2A865C-B1C9-FE4C-AADD-85B4018B2360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60F9774D-80FE-4F10-A821-BAFB380E8CB6}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="8_{EC2A865C-B1C9-FE4C-AADD-85B4018B2360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55237ACA-95BA-8A4D-B18B-F5A77ADE5140}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2025" windowWidth="18450" windowHeight="13395" xr2:uid="{E56C6C9A-C3BB-8C46-86E5-B995A5932795}"/>
+    <workbookView xWindow="0" yWindow="2180" windowWidth="24840" windowHeight="17720" xr2:uid="{E56C6C9A-C3BB-8C46-86E5-B995A5932795}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$21</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
-  <si>
-    <t>Component</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Priority</t>
   </si>
@@ -42,140 +48,134 @@
     <t>Requirement Description</t>
   </si>
   <si>
-    <t>Customer Portal</t>
-  </si>
-  <si>
-    <t>Catalog</t>
-  </si>
-  <si>
-    <t>Shopping Cart</t>
-  </si>
-  <si>
-    <t>Item Display</t>
-  </si>
-  <si>
-    <t>Edit profile</t>
-  </si>
-  <si>
-    <t>Select interests</t>
-  </si>
-  <si>
-    <t>Combine memberships</t>
-  </si>
-  <si>
-    <t>Enter payment methods</t>
-  </si>
-  <si>
-    <t>Upload profile picture</t>
-  </si>
-  <si>
-    <t>Change username</t>
-  </si>
-  <si>
-    <t>Create item</t>
-  </si>
-  <si>
-    <t>Edit item price</t>
-  </si>
-  <si>
-    <t>Restrict item</t>
-  </si>
-  <si>
-    <t>Upload item photo</t>
-  </si>
-  <si>
-    <t>Create item description</t>
-  </si>
-  <si>
-    <t>Choose shipping address</t>
-  </si>
-  <si>
-    <t>Choose payment method</t>
-  </si>
-  <si>
-    <t>Gift status</t>
-  </si>
-  <si>
-    <t>Apply tax</t>
-  </si>
-  <si>
-    <t>Apply discount code</t>
-  </si>
-  <si>
-    <t>Change quantity</t>
-  </si>
-  <si>
-    <t>Specify item shipping address</t>
-  </si>
-  <si>
-    <t>Remove item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enables a logged in user to change information about their profile. Preserves historical information. </t>
-  </si>
-  <si>
-    <t>Provide a list of 20 interests derived from current database, and allow user to select up to 5.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enable a logged in user to  combine two or more memberships, and accumulated discount points. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enable logged in user to enter and save a method of payment. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enable a logged in user to upload a profile picture. Preserve old profile pictures for future use. </t>
-  </si>
-  <si>
-    <t>Allows user to change their publicly displayed username. Does not change email address assoicated with account</t>
-  </si>
-  <si>
-    <t>System administrator can create a new item in the catalog.</t>
-  </si>
-  <si>
-    <t>System administrator can edit the price of the item.</t>
-  </si>
-  <si>
-    <t>System administrator can restrict an item by zip code, customer age, or customer level</t>
-  </si>
-  <si>
-    <t>System administrator can upload item photo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System administrator can create or edit the item description. </t>
-  </si>
-  <si>
-    <t>Logged in user can select a shipping address</t>
-  </si>
-  <si>
-    <t>Logged in user can select a payment method from saved payment methods, or enter a new payment method. User will have choice about whether or not to save new payment method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logged in user will determine if item is a gift, and if so, be able to enter a gift note. </t>
-  </si>
-  <si>
-    <t>Before checkout, tax will be applied based on zip code, and user's tax exempt status</t>
-  </si>
-  <si>
-    <t>Logged in user can apply a discount code to an item</t>
-  </si>
-  <si>
-    <t>Logged in user can change the item quantity</t>
-  </si>
-  <si>
-    <t>Logged in user can specify shipping address for each item</t>
-  </si>
-  <si>
-    <t>Logged in user can remove item from cart</t>
-  </si>
-  <si>
-    <t>EXAMPLE BELOW, WE NEED TO UPDATE THIS</t>
+    <t>Link Zapier to Augur Instance</t>
+  </si>
+  <si>
+    <t>Enable user to link Zapier to their specific instance of Augur.</t>
+  </si>
+  <si>
+    <t>Components: Augur API, Workers, Zapier API, Slack (and other notifying apps)</t>
+  </si>
+  <si>
+    <t>Augur API, Zapier API</t>
+  </si>
+  <si>
+    <t>Zapier API, Slack</t>
+  </si>
+  <si>
+    <t>Link Zapier to Slack channel</t>
+  </si>
+  <si>
+    <t>Enable user to add Zapier notifier to a slack channel</t>
+  </si>
+  <si>
+    <t>Workers, Zapier API</t>
+  </si>
+  <si>
+    <t>Configure which workers send notifications</t>
+  </si>
+  <si>
+    <t>Let user choose which workers are able to trigger notifications</t>
+  </si>
+  <si>
+    <t>Important info in notification</t>
+  </si>
+  <si>
+    <t>Zapier should be able to pull key information from the Augur API to display in a notification</t>
+  </si>
+  <si>
+    <t>Scheduled Notifications</t>
+  </si>
+  <si>
+    <t>Let workers trigger scheduled notifications containing timely information on a user's chosen interval</t>
+  </si>
+  <si>
+    <t>Visualizations (Augur API, Zapier API)</t>
+  </si>
+  <si>
+    <t>Zapier API</t>
+  </si>
+  <si>
+    <t>Use other apps</t>
+  </si>
+  <si>
+    <t>Allow Zapier API to send notifications to applications other than Slack, such as email, Discord, etc.</t>
+  </si>
+  <si>
+    <t>Send insights</t>
+  </si>
+  <si>
+    <t>Send visualizations</t>
+  </si>
+  <si>
+    <t>Insights generated by insight_worker.py are already being sent out to an Amazon server. All we need to do add a couple lines to send them out with Zapier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zapier API, other notifying apps </t>
+  </si>
+  <si>
+    <t>Working Augur Instance</t>
+  </si>
+  <si>
+    <t>Slack channel (if using Slack)</t>
+  </si>
+  <si>
+    <t>Zapier account</t>
+  </si>
+  <si>
+    <t>Send anomalies</t>
+  </si>
+  <si>
+    <t>Make it so that if there is an anomaly within a certain repository that a user will get notified</t>
+  </si>
+  <si>
+    <t>System Requirements</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>General Requirements</t>
+  </si>
+  <si>
+    <t>Must have enough storage to install tools and enough computing power to run the workers.</t>
+  </si>
+  <si>
+    <t>needs to be correctly configured (including CLI/web interface)</t>
+  </si>
+  <si>
+    <t>Zapier needs to have access to Slack (correct permissions</t>
+  </si>
+  <si>
+    <r>
+      <t>use the new Augur API Calls that generate downloadable graphics developed in the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Palatino"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://github.com/chaoss/augur-community-reports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Palatino"/>
+        <family val="1"/>
+      </rPr>
+      <t> repository and send to users who sign up for them</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,8 +189,21 @@
       <color theme="1"/>
       <name val="Palatino-Roman"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Palatino"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Palatino"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +216,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -227,11 +246,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -242,8 +270,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,309 +593,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C019845-1405-C344-8E44-D4F23992CB0F}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="2"/>
+    <col min="1" max="1" width="38.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="17">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="60">
-      <c r="A2" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="45">
+    </row>
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="51">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="68">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="119">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="144">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="46.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="85">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="105">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="60">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="60">
+    </row>
+    <row r="11" spans="1:5" ht="68">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="86" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" ht="34" customHeight="1">
+      <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="75">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="60">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="34" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="34" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="60">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="40" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="60">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="60">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="45">
-      <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="1">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D21">
     <sortCondition ref="B3:B21"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>